--- a/data/price adjustment results.xlsx
+++ b/data/price adjustment results.xlsx
@@ -672,7 +672,7 @@
         <v>1994</v>
       </c>
       <c r="B2">
-        <v>3029.229998725655</v>
+        <v>3039.047528142736</v>
       </c>
       <c r="C2">
         <v>1893.567209844163</v>
@@ -702,16 +702,16 @@
         <v>4827.170551711667</v>
       </c>
       <c r="AA2">
-        <v>8078.058919719101</v>
+        <v>7853.6210450801</v>
       </c>
       <c r="AB2">
         <v>3973.84123840373</v>
       </c>
       <c r="AC2">
-        <v>10932.97607209737</v>
+        <v>12561.49066558981</v>
       </c>
       <c r="AD2">
-        <v>14229.48222094137</v>
+        <v>14083.6270250482</v>
       </c>
       <c r="AE2">
         <v>10932.97607209737</v>
@@ -720,13 +720,13 @@
         <v>9983.204753849926</v>
       </c>
       <c r="AG2">
-        <v>9115.512301324143</v>
+        <v>9083.16390752856</v>
       </c>
       <c r="AH2">
         <v>3215.577331066233</v>
       </c>
       <c r="AI2">
-        <v>1883.468654547752</v>
+        <v>1853.375609815329</v>
       </c>
       <c r="AJ2">
         <v>2151.583029854886</v>
@@ -735,10 +735,10 @@
         <v>1722.074632759469</v>
       </c>
       <c r="AL2">
-        <v>-1493.207075482482</v>
+        <v>1096.738143623042</v>
       </c>
       <c r="AM2">
-        <v>2645.424543714638</v>
+        <v>2686.714471845507</v>
       </c>
       <c r="AN2">
         <v>944.6705646786501</v>
@@ -758,7 +758,7 @@
         <v>1995</v>
       </c>
       <c r="B3">
-        <v>2953.246861184431</v>
+        <v>2963.080266494946</v>
       </c>
       <c r="C3">
         <v>1925.076827581073</v>
@@ -788,16 +788,16 @@
         <v>5734.878483778541</v>
       </c>
       <c r="AA3">
-        <v>9543.209470025655</v>
+        <v>9284.22070482659</v>
       </c>
       <c r="AB3">
         <v>4921.779817125275</v>
       </c>
       <c r="AC3">
-        <v>13809.07611628565</v>
+        <v>15360.81355685363</v>
       </c>
       <c r="AD3">
-        <v>17405.1380928259</v>
+        <v>17235.24571339474</v>
       </c>
       <c r="AE3">
         <v>13809.07611628565</v>
@@ -806,13 +806,13 @@
         <v>9969.364779735877</v>
       </c>
       <c r="AG3">
-        <v>8236.695570870501</v>
+        <v>8187.649055334524</v>
       </c>
       <c r="AH3">
         <v>3076.81178642478</v>
       </c>
       <c r="AI3">
-        <v>1884.408794658326</v>
+        <v>1855.734501901855</v>
       </c>
       <c r="AJ3">
         <v>2129.916352284356</v>
@@ -821,10 +821,10 @@
         <v>1730.623776523709</v>
       </c>
       <c r="AL3">
-        <v>-1287.868886335873</v>
+        <v>1202.26982859948</v>
       </c>
       <c r="AM3">
-        <v>2793.211726870996</v>
+        <v>2830.707654881327</v>
       </c>
       <c r="AN3">
         <v>1057.371553393674</v>
@@ -844,7 +844,7 @@
         <v>1996</v>
       </c>
       <c r="B4">
-        <v>2259.322245386375</v>
+        <v>2267.205391459562</v>
       </c>
       <c r="C4">
         <v>1442.079729819923</v>
@@ -853,10 +853,10 @@
         <v>2118.63781197098</v>
       </c>
       <c r="E4">
-        <v>438.7077670677675</v>
+        <v>446.0321371373554</v>
       </c>
       <c r="F4">
-        <v>861.9108451602838</v>
+        <v>876.3195981684155</v>
       </c>
       <c r="G4">
         <v>405.8704943758826</v>
@@ -883,16 +883,16 @@
         <v>4394.573125906983</v>
       </c>
       <c r="AA4">
-        <v>6627.99479873226</v>
+        <v>6436.909860440333</v>
       </c>
       <c r="AB4">
         <v>3742.736314676677</v>
       </c>
       <c r="AC4">
-        <v>12253.52338229221</v>
+        <v>13497.50474225408</v>
       </c>
       <c r="AD4">
-        <v>14075.66557481316</v>
+        <v>13957.72420910861</v>
       </c>
       <c r="AE4">
         <v>12253.52338229221</v>
@@ -901,13 +901,13 @@
         <v>9878.807659610991</v>
       </c>
       <c r="AG4">
-        <v>7249.282420604792</v>
+        <v>7178.454670144193</v>
       </c>
       <c r="AH4">
         <v>2991.894723220443</v>
       </c>
       <c r="AI4">
-        <v>1795.684619516708</v>
+        <v>1772.697299132093</v>
       </c>
       <c r="AJ4">
         <v>1964.980832982917</v>
@@ -916,10 +916,10 @@
         <v>1672.399783435911</v>
       </c>
       <c r="AL4">
-        <v>-1009.870701181291</v>
+        <v>1380.293867866793</v>
       </c>
       <c r="AM4">
-        <v>2987.137106252043</v>
+        <v>3020.944297771102</v>
       </c>
       <c r="AN4">
         <v>1264.133267023991</v>
@@ -939,7 +939,7 @@
         <v>1997</v>
       </c>
       <c r="B5">
-        <v>2492.788380767925</v>
+        <v>2501.905580757952</v>
       </c>
       <c r="C5">
         <v>1699.685599376939</v>
@@ -948,10 +948,10 @@
         <v>2330.080738029385</v>
       </c>
       <c r="E5">
-        <v>408.2705701015617</v>
+        <v>416.9232396478642</v>
       </c>
       <c r="F5">
-        <v>779.2484732843965</v>
+        <v>784.7281377631289</v>
       </c>
       <c r="G5">
         <v>363.5468558814899</v>
@@ -978,16 +978,16 @@
         <v>4377.227979996829</v>
       </c>
       <c r="AA5">
-        <v>6682.977883125289</v>
+        <v>6495.416648572882</v>
       </c>
       <c r="AB5">
         <v>3623.350465401219</v>
       </c>
       <c r="AC5">
-        <v>11047.23122684938</v>
+        <v>12485.94956814904</v>
       </c>
       <c r="AD5">
-        <v>13772.50786739735</v>
+        <v>13714.41743032888</v>
       </c>
       <c r="AE5">
         <v>11047.23122684939</v>
@@ -996,13 +996,13 @@
         <v>10596.86011749909</v>
       </c>
       <c r="AG5">
-        <v>6752.646789305185</v>
+        <v>6634.558803208983</v>
       </c>
       <c r="AH5">
         <v>2756.095743679258</v>
       </c>
       <c r="AI5">
-        <v>2238.278968819807</v>
+        <v>2211.693136813698</v>
       </c>
       <c r="AJ5">
         <v>2521.557098444086</v>
@@ -1011,10 +1011,10 @@
         <v>2095.694714278403</v>
       </c>
       <c r="AL5">
-        <v>-1165.275765498726</v>
+        <v>1128.457513980288</v>
       </c>
       <c r="AM5">
-        <v>2396.491755752877</v>
+        <v>2396.915551211947</v>
       </c>
       <c r="AN5">
         <v>994.112746166364</v>
@@ -1034,7 +1034,7 @@
         <v>1998</v>
       </c>
       <c r="B6">
-        <v>2122.258023318381</v>
+        <v>2135.240044613039</v>
       </c>
       <c r="C6">
         <v>1641.045270585859</v>
@@ -1043,10 +1043,10 @@
         <v>1890.577892889552</v>
       </c>
       <c r="E6">
-        <v>377.0650519193002</v>
+        <v>389.3856262654373</v>
       </c>
       <c r="F6">
-        <v>759.6712906115605</v>
+        <v>760.3906002800281</v>
       </c>
       <c r="G6">
         <v>313.382757901813</v>
@@ -1064,7 +1064,7 @@
         <v>87.7558132989993</v>
       </c>
       <c r="R6">
-        <v>435.33322002614</v>
+        <v>478.5639104833436</v>
       </c>
       <c r="S6">
         <v>87.96449383716349</v>
@@ -1082,16 +1082,16 @@
         <v>3668.87278694538</v>
       </c>
       <c r="AA6">
-        <v>6075.704547435168</v>
+        <v>5950.820481300845</v>
       </c>
       <c r="AB6">
         <v>2595.42326749326</v>
       </c>
       <c r="AC6">
-        <v>7274.192290549497</v>
+        <v>9322.789684946512</v>
       </c>
       <c r="AD6">
-        <v>12367.10025288986</v>
+        <v>12368.90658121674</v>
       </c>
       <c r="AE6">
         <v>7274.192290549498</v>
@@ -1100,13 +1100,13 @@
         <v>11695.79611501605</v>
       </c>
       <c r="AG6">
-        <v>8611.865401529431</v>
+        <v>8468.019512548628</v>
       </c>
       <c r="AH6">
         <v>3072.342734061906</v>
       </c>
       <c r="AI6">
-        <v>1811.041980828822</v>
+        <v>1773.186297327636</v>
       </c>
       <c r="AJ6">
         <v>2194.698793840316</v>
@@ -1115,10 +1115,10 @@
         <v>1608.015631646607</v>
       </c>
       <c r="AL6">
-        <v>-1191.933619830583</v>
+        <v>1020.9385183989</v>
       </c>
       <c r="AM6">
-        <v>2343.036159627598</v>
+        <v>2325.600950112766</v>
       </c>
       <c r="AN6">
         <v>829.6444107239671</v>
@@ -1138,7 +1138,7 @@
         <v>1999</v>
       </c>
       <c r="B7">
-        <v>2014.180256356012</v>
+        <v>2024.552170337679</v>
       </c>
       <c r="C7">
         <v>1498.949847062671</v>
@@ -1147,10 +1147,10 @@
         <v>1829.080699859515</v>
       </c>
       <c r="E7">
-        <v>286.4934365268795</v>
+        <v>296.3368911340179</v>
       </c>
       <c r="F7">
-        <v>518.3651004601421</v>
+        <v>510.1239030242381</v>
       </c>
       <c r="G7">
         <v>235.6148205769566</v>
@@ -1168,7 +1168,7 @@
         <v>75.40403640243117</v>
       </c>
       <c r="R7">
-        <v>301.8999530762291</v>
+        <v>324.3088451882286</v>
       </c>
       <c r="S7">
         <v>75.40403640243117</v>
@@ -1186,16 +1186,16 @@
         <v>3271.379122535673</v>
       </c>
       <c r="AA7">
-        <v>4857.248410662987</v>
+        <v>4715.298211067456</v>
       </c>
       <c r="AB7">
         <v>2413.752576814248</v>
       </c>
       <c r="AC7">
-        <v>9208.52682714802</v>
+        <v>10845.24236438851</v>
       </c>
       <c r="AD7">
-        <v>12814.23473027679</v>
+        <v>12885.39831100219</v>
       </c>
       <c r="AE7">
         <v>9208.52682714802</v>
@@ -1204,13 +1204,13 @@
         <v>11579.07000940162</v>
       </c>
       <c r="AG7">
-        <v>7014.842603925805</v>
+        <v>6772.90516752391</v>
       </c>
       <c r="AH7">
         <v>2823.805448269864</v>
       </c>
       <c r="AI7">
-        <v>1811.488822674361</v>
+        <v>1781.244234094532</v>
       </c>
       <c r="AJ7">
         <v>2079.009181811189</v>
@@ -1219,10 +1219,10 @@
         <v>1649.282045937953</v>
       </c>
       <c r="AL7">
-        <v>-1215.170978540752</v>
+        <v>923.2048889524799</v>
       </c>
       <c r="AM7">
-        <v>1924.663649083178</v>
+        <v>1879.392374975005</v>
       </c>
       <c r="AN7">
         <v>770.371521561483</v>
@@ -1242,7 +1242,7 @@
         <v>2000</v>
       </c>
       <c r="B8">
-        <v>1890.971075009421</v>
+        <v>1895.505544436486</v>
       </c>
       <c r="C8">
         <v>1321.832856882523</v>
@@ -1251,10 +1251,10 @@
         <v>1810.047893291923</v>
       </c>
       <c r="E8">
-        <v>274.4863036523527</v>
+        <v>278.7897373340887</v>
       </c>
       <c r="F8">
-        <v>450.8602646135616</v>
+        <v>433.2326065581429</v>
       </c>
       <c r="G8">
         <v>252.2428171633491</v>
@@ -1272,7 +1272,7 @@
         <v>85.88051523083799</v>
       </c>
       <c r="R8">
-        <v>230.4039053874858</v>
+        <v>238.7673429276208</v>
       </c>
       <c r="S8">
         <v>85.880515230838</v>
@@ -1290,16 +1290,16 @@
         <v>3067.284463813045</v>
       </c>
       <c r="AA8">
-        <v>4059.506472146304</v>
+        <v>3879.706000283642</v>
       </c>
       <c r="AB8">
         <v>2692.341000312751</v>
       </c>
       <c r="AC8">
-        <v>12831.07839184699</v>
+        <v>13546.62969486954</v>
       </c>
       <c r="AD8">
-        <v>12968.34100122869</v>
+        <v>13130.18645120406</v>
       </c>
       <c r="AE8">
         <v>12831.07839184699</v>
@@ -1308,13 +1308,13 @@
         <v>11130.34386747887</v>
       </c>
       <c r="AG8">
-        <v>5087.036327997187</v>
+        <v>4763.106115127945</v>
       </c>
       <c r="AH8">
         <v>2595.03198615965</v>
       </c>
       <c r="AI8">
-        <v>1744.753205394966</v>
+        <v>1731.53065433141</v>
       </c>
       <c r="AJ8">
         <v>1833.62743803099</v>
@@ -1323,10 +1323,10 @@
         <v>1673.838457039541</v>
       </c>
       <c r="AL8">
-        <v>-1288.875796434148</v>
+        <v>740.7310435889341</v>
       </c>
       <c r="AM8">
-        <v>1329.751956369921</v>
+        <v>1264.463785172527</v>
       </c>
       <c r="AN8">
         <v>673.9142310801864</v>
@@ -1346,7 +1346,7 @@
         <v>2001</v>
       </c>
       <c r="B9">
-        <v>1826.881637328442</v>
+        <v>1834.254882252798</v>
       </c>
       <c r="C9">
         <v>1365.309341873655</v>
@@ -1355,10 +1355,10 @@
         <v>1695.297016799315</v>
       </c>
       <c r="E9">
-        <v>276.6580665981167</v>
+        <v>283.6556373308187</v>
       </c>
       <c r="F9">
-        <v>447.5375203602973</v>
+        <v>433.9605269800974</v>
       </c>
       <c r="G9">
         <v>240.4891880792503</v>
@@ -1376,7 +1376,7 @@
         <v>130.4290345079887</v>
       </c>
       <c r="R9">
-        <v>379.9997230529954</v>
+        <v>394.4833486179259</v>
       </c>
       <c r="S9">
         <v>130.4290345079887</v>
@@ -1394,16 +1394,16 @@
         <v>2892.862499727912</v>
       </c>
       <c r="AA9">
-        <v>3839.801927901495</v>
+        <v>3706.514895511966</v>
       </c>
       <c r="AB9">
         <v>2283.188086074759</v>
       </c>
       <c r="AC9">
-        <v>8633.621267837483</v>
+        <v>9797.138874029011</v>
       </c>
       <c r="AD9">
-        <v>10369.4061676647</v>
+        <v>10482.03539129373</v>
       </c>
       <c r="AE9">
         <v>8633.621267837483</v>
@@ -1412,13 +1412,13 @@
         <v>11123.70149856767</v>
       </c>
       <c r="AG9">
-        <v>4607.123691945447</v>
+        <v>4371.747133797391</v>
       </c>
       <c r="AH9">
         <v>2229.003810223174</v>
       </c>
       <c r="AI9">
-        <v>1396.661703082816</v>
+        <v>1375.161258745383</v>
       </c>
       <c r="AJ9">
         <v>1502.239403525203</v>
@@ -1427,10 +1427,10 @@
         <v>1281.35123142041</v>
       </c>
       <c r="AL9">
-        <v>-1098.533507301561</v>
+        <v>796.9988764892109</v>
       </c>
       <c r="AM9">
-        <v>1424.171210784065</v>
+        <v>1367.864824805241</v>
       </c>
       <c r="AN9">
         <v>688.3518271230299</v>
@@ -1450,7 +1450,7 @@
         <v>2002</v>
       </c>
       <c r="B10">
-        <v>1889.453326908958</v>
+        <v>1896.967752482155</v>
       </c>
       <c r="C10">
         <v>1434.330243248789</v>
@@ -1459,10 +1459,10 @@
         <v>1755.349164130199</v>
       </c>
       <c r="E10">
-        <v>291.1931443106196</v>
+        <v>298.3247023971243</v>
       </c>
       <c r="F10">
-        <v>463.0207521001788</v>
+        <v>451.4735369528811</v>
       </c>
       <c r="G10">
         <v>254.3317151184023</v>
@@ -1480,7 +1480,7 @@
         <v>86.84793757878771</v>
       </c>
       <c r="R10">
-        <v>254.2272841232823</v>
+        <v>265.0444619408447</v>
       </c>
       <c r="S10">
         <v>86.84793757878771</v>
@@ -1498,16 +1498,16 @@
         <v>2839.169661169626</v>
       </c>
       <c r="AA10">
-        <v>3745.205173416094</v>
+        <v>3628.925401331016</v>
       </c>
       <c r="AB10">
         <v>2217.821387474612</v>
       </c>
       <c r="AC10">
-        <v>9635.083665486103</v>
+        <v>10820.87995253867</v>
       </c>
       <c r="AD10">
-        <v>11676.46171068463</v>
+        <v>11775.6549004606</v>
       </c>
       <c r="AE10">
         <v>9635.083665486105</v>
@@ -1516,13 +1516,13 @@
         <v>10789.50399569257</v>
       </c>
       <c r="AG10">
-        <v>4677.50187754017</v>
+        <v>4470.557152727665</v>
       </c>
       <c r="AH10">
         <v>2306.801996931408</v>
       </c>
       <c r="AI10">
-        <v>1224.84913966006</v>
+        <v>1202.937011360807</v>
       </c>
       <c r="AJ10">
         <v>1316.855094224288</v>
@@ -1531,10 +1531,10 @@
         <v>1107.330738195447</v>
       </c>
       <c r="AL10">
-        <v>-1071.620628538049</v>
+        <v>754.1274023817365</v>
       </c>
       <c r="AM10">
-        <v>1321.38756292729</v>
+        <v>1276.152449688538</v>
       </c>
       <c r="AN10">
         <v>643.4000123946294</v>
@@ -1554,7 +1554,7 @@
         <v>2003</v>
       </c>
       <c r="B11">
-        <v>2041.796676323993</v>
+        <v>2046.964440581292</v>
       </c>
       <c r="C11">
         <v>1533.013768922933</v>
@@ -1563,10 +1563,10 @@
         <v>1949.571569772271</v>
       </c>
       <c r="E11">
-        <v>353.585076341157</v>
+        <v>358.4895378491324</v>
       </c>
       <c r="F11">
-        <v>543.8867106109592</v>
+        <v>530.0374393532633</v>
       </c>
       <c r="G11">
         <v>328.2350114031322</v>
@@ -1593,7 +1593,7 @@
         <v>85.11416895594142</v>
       </c>
       <c r="R11">
-        <v>209.424086632416</v>
+        <v>217.7949112095616</v>
       </c>
       <c r="S11">
         <v>85.11416895594142</v>
@@ -1611,16 +1611,16 @@
         <v>2899.658110624252</v>
       </c>
       <c r="AA11">
-        <v>3712.950807203846</v>
+        <v>3589.809795664874</v>
       </c>
       <c r="AB11">
         <v>2472.34914750288</v>
       </c>
       <c r="AC11">
-        <v>13393.39720784794</v>
+        <v>14208.88411486125</v>
       </c>
       <c r="AD11">
-        <v>14263.95045746238</v>
+        <v>14382.81121905641</v>
       </c>
       <c r="AE11">
         <v>13393.39720784794</v>
@@ -1629,13 +1629,13 @@
         <v>10192.05810084931</v>
       </c>
       <c r="AG11">
-        <v>4384.166355414323</v>
+        <v>4179.082646499586</v>
       </c>
       <c r="AH11">
         <v>2390.174069701314</v>
       </c>
       <c r="AI11">
-        <v>1231.128954004915</v>
+        <v>1216.059709879306</v>
       </c>
       <c r="AJ11">
         <v>1297.527823096011</v>
@@ -1644,10 +1644,10 @@
         <v>1150.310082522585</v>
       </c>
       <c r="AL11">
-        <v>-946.6191830869468</v>
+        <v>790.5908133072447</v>
       </c>
       <c r="AM11">
-        <v>1313.043798079146</v>
+        <v>1266.358240470597</v>
       </c>
       <c r="AN11">
         <v>714.4422051793805</v>
@@ -1667,7 +1667,7 @@
         <v>2004</v>
       </c>
       <c r="B12">
-        <v>2121.081588374659</v>
+        <v>2121.438777659971</v>
       </c>
       <c r="C12">
         <v>1564.340215225701</v>
@@ -1676,10 +1676,10 @@
         <v>2114.70710644071</v>
       </c>
       <c r="E12">
-        <v>462.4820734915814</v>
+        <v>462.8210636261259</v>
       </c>
       <c r="F12">
-        <v>663.3749150838112</v>
+        <v>639.5828673570072</v>
       </c>
       <c r="G12">
         <v>460.729909281489</v>
@@ -1706,7 +1706,7 @@
         <v>112.4126078389822</v>
       </c>
       <c r="R12">
-        <v>217.2589190034391</v>
+        <v>221.8225023790595</v>
       </c>
       <c r="S12">
         <v>112.4126078389822</v>
@@ -1724,16 +1724,16 @@
         <v>3904.994611852854</v>
       </c>
       <c r="AA12">
-        <v>4758.004275608667</v>
+        <v>4566.020381410854</v>
       </c>
       <c r="AB12">
         <v>3875.459560417547</v>
       </c>
       <c r="AC12">
-        <v>18741.6939256409</v>
+        <v>18798.05934228818</v>
       </c>
       <c r="AD12">
-        <v>16443.84722147208</v>
+        <v>16632.92176039686</v>
       </c>
       <c r="AE12">
         <v>18741.6939256409</v>
@@ -1742,13 +1742,13 @@
         <v>10292.42196211406</v>
       </c>
       <c r="AG12">
-        <v>4964.000836072146</v>
+        <v>4670.858647691788</v>
       </c>
       <c r="AH12">
         <v>3178.46222309866</v>
       </c>
       <c r="AI12">
-        <v>1424.639231437696</v>
+        <v>1423.597664471513</v>
       </c>
       <c r="AJ12">
         <v>1463.9942487745</v>
@@ -1757,10 +1757,10 @@
         <v>1419.0531339481</v>
       </c>
       <c r="AL12">
-        <v>-441.8782203613262</v>
+        <v>1198.576377862342</v>
       </c>
       <c r="AM12">
-        <v>1825.970674783518</v>
+        <v>1745.748777820453</v>
       </c>
       <c r="AN12">
         <v>1193.313083029125</v>
@@ -1780,7 +1780,7 @@
         <v>2005</v>
       </c>
       <c r="B13">
-        <v>2046.891555597396</v>
+        <v>2040.528358395428</v>
       </c>
       <c r="C13">
         <v>1492.420982922484</v>
@@ -1789,10 +1789,10 @@
         <v>2160.45063274228</v>
       </c>
       <c r="E13">
-        <v>427.793376307097</v>
+        <v>421.7543903567156</v>
       </c>
       <c r="F13">
-        <v>576.4144387838746</v>
+        <v>552.4078424911451</v>
       </c>
       <c r="G13">
         <v>459.0075444177132</v>
@@ -1819,7 +1819,7 @@
         <v>278.4677843902763</v>
       </c>
       <c r="R13">
-        <v>400.996362153057</v>
+        <v>405.7752501145707</v>
       </c>
       <c r="S13">
         <v>278.4677843902763</v>
@@ -1837,16 +1837,16 @@
         <v>4283.467108751361</v>
       </c>
       <c r="AA13">
-        <v>4823.216812129355</v>
+        <v>4603.495237077906</v>
       </c>
       <c r="AB13">
         <v>4809.623307666517</v>
       </c>
       <c r="AC13">
-        <v>19361.60799572305</v>
+        <v>18357.47859922047</v>
       </c>
       <c r="AD13">
-        <v>13938.76673064713</v>
+        <v>14124.15244675274</v>
       </c>
       <c r="AE13">
         <v>19361.60799572304</v>
@@ -1855,13 +1855,13 @@
         <v>9864.561850100736</v>
       </c>
       <c r="AG13">
-        <v>4463.677102666984</v>
+        <v>4166.836113007903</v>
       </c>
       <c r="AH13">
         <v>3373.685251589704</v>
       </c>
       <c r="AI13">
-        <v>1707.051806496368</v>
+        <v>1725.606943163143</v>
       </c>
       <c r="AJ13">
         <v>1685.612383889196</v>
@@ -1870,10 +1870,10 @@
         <v>1806.566101514039</v>
       </c>
       <c r="AL13">
-        <v>-334.2029502971275</v>
+        <v>1182.690285856899</v>
       </c>
       <c r="AM13">
-        <v>1655.287827511363</v>
+        <v>1573.862503592217</v>
       </c>
       <c r="AN13">
         <v>1276.453968960022</v>
@@ -1893,7 +1893,7 @@
         <v>2006</v>
       </c>
       <c r="B14">
-        <v>2729.347979379077</v>
+        <v>2719.224465483292</v>
       </c>
       <c r="C14">
         <v>1973.35949874994</v>
@@ -1902,10 +1902,10 @@
         <v>2910.014530953652</v>
       </c>
       <c r="E14">
-        <v>438.1485689150216</v>
+        <v>428.5408581613431</v>
       </c>
       <c r="F14">
-        <v>560.0150772488767</v>
+        <v>534.7814279522767</v>
       </c>
       <c r="G14">
         <v>487.8086775967711</v>
@@ -1932,7 +1932,7 @@
         <v>330.1285110185893</v>
       </c>
       <c r="R14">
-        <v>413.9939963129534</v>
+        <v>414.1341807376327</v>
       </c>
       <c r="S14">
         <v>330.1285110185893</v>
@@ -1950,16 +1950,16 @@
         <v>7679.047788651795</v>
       </c>
       <c r="AA14">
-        <v>7507.013774772417</v>
+        <v>7152.991587624657</v>
       </c>
       <c r="AB14">
         <v>8516.13477841579</v>
       </c>
       <c r="AC14">
-        <v>30553.92590980386</v>
+        <v>28956.4085649832</v>
       </c>
       <c r="AD14">
-        <v>19815.00859958967</v>
+        <v>20097.53591478872</v>
       </c>
       <c r="AE14">
         <v>30553.92590980386</v>
@@ -1968,13 +1968,13 @@
         <v>9892.505683164791</v>
       </c>
       <c r="AG14">
-        <v>6038.048374792846</v>
+        <v>5623.542150949357</v>
       </c>
       <c r="AH14">
         <v>5168.004763378726</v>
       </c>
       <c r="AI14">
-        <v>3976.019883537146</v>
+        <v>4005.54013537315</v>
       </c>
       <c r="AJ14">
         <v>3618.81807879463</v>
@@ -1983,10 +1983,10 @@
         <v>4134.341921415979</v>
       </c>
       <c r="AL14">
-        <v>102.2798648589341</v>
+        <v>1483.279592065384</v>
       </c>
       <c r="AM14">
-        <v>1896.290993985515</v>
+        <v>1797.181173696075</v>
       </c>
       <c r="AN14">
         <v>1632.45270719699</v>
@@ -2006,7 +2006,7 @@
         <v>2007</v>
       </c>
       <c r="B15">
-        <v>2487.778905152303</v>
+        <v>2475.664302552323</v>
       </c>
       <c r="C15">
         <v>1862.939287362291</v>
@@ -2015,10 +2015,10 @@
         <v>2703.978882548139</v>
       </c>
       <c r="E15">
-        <v>535.3879741773319</v>
+        <v>523.8906226771921</v>
       </c>
       <c r="F15">
-        <v>642.7895746035699</v>
+        <v>613.1477936052606</v>
       </c>
       <c r="G15">
         <v>594.8152133696249</v>
@@ -2045,7 +2045,7 @@
         <v>306.5517591648745</v>
       </c>
       <c r="R15">
-        <v>357.1907810624558</v>
+        <v>354.0992277519456</v>
       </c>
       <c r="S15">
         <v>306.5517591648746</v>
@@ -2063,16 +2063,16 @@
         <v>7787.170699539654</v>
       </c>
       <c r="AA15">
-        <v>7408.237545364498</v>
+        <v>7066.558065735732</v>
       </c>
       <c r="AB15">
         <v>8788.89562697106</v>
       </c>
       <c r="AC15">
-        <v>45863.57383290224</v>
+        <v>43951.85740930561</v>
       </c>
       <c r="AD15">
-        <v>29162.87366522724</v>
+        <v>29563.29079714763</v>
       </c>
       <c r="AE15">
         <v>45863.57383290222</v>
@@ -2081,13 +2081,13 @@
         <v>9645.155975803396</v>
       </c>
       <c r="AG15">
-        <v>6390.627560381578</v>
+        <v>5950.36434277031</v>
       </c>
       <c r="AH15">
         <v>5824.455371479072</v>
       </c>
       <c r="AI15">
-        <v>3823.059698105077</v>
+        <v>3858.385981382417</v>
       </c>
       <c r="AJ15">
         <v>3479.053832016713</v>
@@ -2096,10 +2096,10 @@
         <v>4012.520451699731</v>
       </c>
       <c r="AL15">
-        <v>1747.578813719142</v>
+        <v>2997.230071924166</v>
       </c>
       <c r="AM15">
-        <v>3301.420506487987</v>
+        <v>3132.433974665019</v>
       </c>
       <c r="AN15">
         <v>3175.742496268562</v>
@@ -2119,7 +2119,7 @@
         <v>2008</v>
       </c>
       <c r="B16">
-        <v>2263.164898012044</v>
+        <v>2240.18240376374</v>
       </c>
       <c r="C16">
         <v>1682.470515639624</v>
@@ -2128,10 +2128,10 @@
         <v>2673.315763133353</v>
       </c>
       <c r="E16">
-        <v>698.5485312609035</v>
+        <v>676.7370180443577</v>
       </c>
       <c r="F16">
-        <v>737.846479754887</v>
+        <v>713.8047201531751</v>
       </c>
       <c r="G16">
         <v>811.2873662047383</v>
@@ -2158,7 +2158,7 @@
         <v>289.9423498815776</v>
       </c>
       <c r="R16">
-        <v>269.9290253941594</v>
+        <v>273.1782771263833</v>
       </c>
       <c r="S16">
         <v>289.9423498815776</v>
@@ -2176,16 +2176,16 @@
         <v>6346.611485685198</v>
       </c>
       <c r="AA16">
-        <v>5683.933363212683</v>
+        <v>5431.411537051076</v>
       </c>
       <c r="AB16">
         <v>8246.974059948292</v>
       </c>
       <c r="AC16">
-        <v>25090.50274340072</v>
+        <v>21463.80419121172</v>
       </c>
       <c r="AD16">
-        <v>12950.94123094517</v>
+        <v>13084.32584843363</v>
       </c>
       <c r="AE16">
         <v>25090.50274340072</v>
@@ -2194,13 +2194,13 @@
         <v>7985.92715801168</v>
       </c>
       <c r="AG16">
-        <v>5785.136996607814</v>
+        <v>5450.000377845631</v>
       </c>
       <c r="AH16">
         <v>6278.90940860684</v>
       </c>
       <c r="AI16">
-        <v>1877.257370920815</v>
+        <v>1944.274517833803</v>
       </c>
       <c r="AJ16">
         <v>1786.192351653357</v>
@@ -2209,10 +2209,10 @@
         <v>2236.681515776805</v>
       </c>
       <c r="AL16">
-        <v>1036.488756427393</v>
+        <v>2145.42680184368</v>
       </c>
       <c r="AM16">
-        <v>2220.968025989082</v>
+        <v>2132.460676000992</v>
       </c>
       <c r="AN16">
         <v>2484.080978230137</v>
@@ -2232,7 +2232,7 @@
         <v>2009</v>
       </c>
       <c r="B17">
-        <v>1622.929587599851</v>
+        <v>1616.733845409171</v>
       </c>
       <c r="C17">
         <v>1272.341492960146</v>
@@ -2241,10 +2241,10 @@
         <v>1733.500224194849</v>
       </c>
       <c r="E17">
-        <v>427.835187330158</v>
+        <v>421.9551243910236</v>
       </c>
       <c r="F17">
-        <v>519.482483249463</v>
+        <v>522.8016108310323</v>
       </c>
       <c r="G17">
         <v>458.2279179294982</v>
@@ -2271,7 +2271,7 @@
         <v>244.6645542113824</v>
       </c>
       <c r="R17">
-        <v>315.2369729633236</v>
+        <v>336.5429994230637</v>
       </c>
       <c r="S17">
         <v>244.6645542113824</v>
@@ -2298,16 +2298,16 @@
         <v>5632.490012967714</v>
       </c>
       <c r="AA17">
-        <v>5737.626071596183</v>
+        <v>5630.296973392537</v>
       </c>
       <c r="AB17">
         <v>6144.799793261443</v>
       </c>
       <c r="AC17">
-        <v>17454.50384199684</v>
+        <v>16476.79929044093</v>
       </c>
       <c r="AD17">
-        <v>13113.73402966891</v>
+        <v>13045.68189900801</v>
       </c>
       <c r="AE17">
         <v>17454.50384199684</v>
@@ -2316,13 +2316,13 @@
         <v>7772.851680189412</v>
       </c>
       <c r="AG17">
-        <v>6961.957381907436</v>
+        <v>6918.73239466605</v>
       </c>
       <c r="AH17">
         <v>6149.968993443962</v>
       </c>
       <c r="AI17">
-        <v>1876.745065179948</v>
+        <v>1894.811901622577</v>
       </c>
       <c r="AJ17">
         <v>1827.922566536803</v>
@@ -2331,10 +2331,10 @@
         <v>1973.64052459239</v>
       </c>
       <c r="AL17">
-        <v>910.7206896026295</v>
+        <v>1953.439364652624</v>
       </c>
       <c r="AM17">
-        <v>2259.572075179576</v>
+        <v>2279.553930030955</v>
       </c>
       <c r="AN17">
         <v>2044.735546260165</v>
@@ -2349,7 +2349,7 @@
         <v>50544909.32585665</v>
       </c>
       <c r="AU17">
-        <v>10290.96057993413</v>
+        <v>9856.480473185056</v>
       </c>
       <c r="AV17">
         <v>14587.48347927107</v>
@@ -2363,7 +2363,7 @@
         <v>2010</v>
       </c>
       <c r="B18">
-        <v>2190.139155210531</v>
+        <v>2176.502766831772</v>
       </c>
       <c r="C18">
         <v>1638.510221710126</v>
@@ -2372,10 +2372,10 @@
         <v>2433.497270750601</v>
       </c>
       <c r="E18">
-        <v>534.1049651532676</v>
+        <v>521.1633643794012</v>
       </c>
       <c r="F18">
-        <v>599.171598291011</v>
+        <v>606.6437179930856</v>
       </c>
       <c r="G18">
         <v>600.997205919358</v>
@@ -2390,7 +2390,7 @@
         <v>50645378.4544076</v>
       </c>
       <c r="K18">
-        <v>70425.01020391492</v>
+        <v>45229.82923351408</v>
       </c>
       <c r="L18">
         <v>65066.89607845199</v>
@@ -2411,7 +2411,7 @@
         <v>283.6066453000674</v>
       </c>
       <c r="R18">
-        <v>285.3504024225822</v>
+        <v>310.3449926175601</v>
       </c>
       <c r="S18">
         <v>283.6066453000674</v>
@@ -2438,16 +2438,16 @@
         <v>7715.546012949038</v>
       </c>
       <c r="AA18">
-        <v>6983.837112821346</v>
+        <v>6834.477485406181</v>
       </c>
       <c r="AB18">
         <v>8843.103441796009</v>
       </c>
       <c r="AC18">
-        <v>25571.519597501</v>
+        <v>23419.66134156002</v>
       </c>
       <c r="AD18">
-        <v>15820.38339984193</v>
+        <v>15688.02995666639</v>
       </c>
       <c r="AE18">
         <v>25571.51959750099</v>
@@ -2456,13 +2456,13 @@
         <v>7184.504332356701</v>
       </c>
       <c r="AG18">
-        <v>8150.349698988449</v>
+        <v>8118.058115875863</v>
       </c>
       <c r="AH18">
         <v>8330.389494083967</v>
       </c>
       <c r="AI18">
-        <v>2321.415317131863</v>
+        <v>2361.179140564962</v>
       </c>
       <c r="AJ18">
         <v>2165.903305655069</v>
@@ -2471,16 +2471,16 @@
         <v>2534.675339260268</v>
       </c>
       <c r="AL18">
-        <v>1324.423631341918</v>
+        <v>2318.30351037717</v>
       </c>
       <c r="AM18">
-        <v>2445.991658472481</v>
+        <v>2479.057271565026</v>
       </c>
       <c r="AN18">
         <v>2519.239919863488</v>
       </c>
       <c r="AO18">
-        <v>9726.947151742046</v>
+        <v>21544.72733086469</v>
       </c>
       <c r="AP18">
         <v>25816.55703679606</v>
@@ -2498,7 +2498,7 @@
         <v>66568555.81618441</v>
       </c>
       <c r="AU18">
-        <v>9543.312081874557</v>
+        <v>9118.380625970854</v>
       </c>
       <c r="AV18">
         <v>12714.59054974415</v>
@@ -2512,7 +2512,7 @@
         <v>2011</v>
       </c>
       <c r="B19">
-        <v>2228.409769374864</v>
+        <v>2209.131890298587</v>
       </c>
       <c r="C19">
         <v>1690.268828962193</v>
@@ -2521,10 +2521,10 @@
         <v>2572.447222203633</v>
       </c>
       <c r="E19">
-        <v>637.2792435518647</v>
+        <v>618.9835916649863</v>
       </c>
       <c r="F19">
-        <v>661.9722045643607</v>
+        <v>670.5426447996235</v>
       </c>
       <c r="G19">
         <v>731.8453773999267</v>
@@ -2539,7 +2539,7 @@
         <v>62872732.99686522</v>
       </c>
       <c r="K19">
-        <v>61097.87929816626</v>
+        <v>40275.28276910396</v>
       </c>
       <c r="L19">
         <v>51027.9655930233</v>
@@ -2560,7 +2560,7 @@
         <v>481.5914936761757</v>
       </c>
       <c r="R19">
-        <v>408.6488804253697</v>
+        <v>443.5409110922894</v>
       </c>
       <c r="S19">
         <v>481.5914936761756</v>
@@ -2587,16 +2587,16 @@
         <v>8445.559487068203</v>
       </c>
       <c r="AA19">
-        <v>7098.665752498443</v>
+        <v>6942.99518683605</v>
       </c>
       <c r="AB19">
         <v>10039.59708420269</v>
       </c>
       <c r="AC19">
-        <v>26074.83304763287</v>
+        <v>23032.7325958787</v>
       </c>
       <c r="AD19">
-        <v>14609.68163339149</v>
+        <v>14490.33998749352</v>
       </c>
       <c r="AE19">
         <v>26074.83304763287</v>
@@ -2605,13 +2605,13 @@
         <v>9712.448770291188</v>
       </c>
       <c r="AG19">
-        <v>12219.27680013021</v>
+        <v>12207.39620563668</v>
       </c>
       <c r="AH19">
         <v>14114.68959384535</v>
       </c>
       <c r="AI19">
-        <v>2195.08619140585</v>
+        <v>2251.300649256565</v>
       </c>
       <c r="AJ19">
         <v>2037.889401797308</v>
@@ -2620,16 +2620,16 @@
         <v>2496.573711723138</v>
       </c>
       <c r="AL19">
-        <v>1592.105140529262</v>
+        <v>2445.267165124978</v>
       </c>
       <c r="AM19">
-        <v>2377.449549245478</v>
+        <v>2409.503651139671</v>
       </c>
       <c r="AN19">
         <v>2729.332688671689</v>
       </c>
       <c r="AO19">
-        <v>15999.71263146202</v>
+        <v>26786.45739162236</v>
       </c>
       <c r="AP19">
         <v>23300.38901847663</v>
@@ -2647,7 +2647,7 @@
         <v>68957722.22657301</v>
       </c>
       <c r="AU19">
-        <v>8604.009675423622</v>
+        <v>8203.676524352748</v>
       </c>
       <c r="AV19">
         <v>10118.68270538249</v>
@@ -2661,7 +2661,7 @@
         <v>2012</v>
       </c>
       <c r="B20">
-        <v>1815.11185942768</v>
+        <v>1797.02415477917</v>
       </c>
       <c r="C20">
         <v>1450.443292301345</v>
@@ -2670,10 +2670,10 @@
         <v>2137.909186362385</v>
       </c>
       <c r="E20">
-        <v>535.4700853235189</v>
+        <v>518.3039672888303</v>
       </c>
       <c r="F20">
-        <v>559.914460087939</v>
+        <v>569.7380545957506</v>
       </c>
       <c r="G20">
         <v>624.1979112439627</v>
@@ -2688,7 +2688,7 @@
         <v>65571550.79522585</v>
       </c>
       <c r="K20">
-        <v>49937.46406904149</v>
+        <v>32270.12479563837</v>
       </c>
       <c r="L20">
         <v>39549.79628219333</v>
@@ -2709,7 +2709,7 @@
         <v>469.6324381490962</v>
       </c>
       <c r="R20">
-        <v>392.227401129863</v>
+        <v>426.7270177985818</v>
       </c>
       <c r="S20">
         <v>469.6324381490962</v>
@@ -2736,16 +2736,16 @@
         <v>7366.179416132915</v>
       </c>
       <c r="AA20">
-        <v>6349.591507947865</v>
+        <v>6240.322481142975</v>
       </c>
       <c r="AB20">
         <v>8861.804590536607</v>
       </c>
       <c r="AC20">
-        <v>19536.85989573413</v>
+        <v>16682.57212555394</v>
       </c>
       <c r="AD20">
-        <v>11500.11875949572</v>
+        <v>11393.77320808762</v>
       </c>
       <c r="AE20">
         <v>19536.85989573413</v>
@@ -2754,13 +2754,13 @@
         <v>7246.094834409771</v>
       </c>
       <c r="AG20">
-        <v>10479.5222703584</v>
+        <v>10543.40684677418</v>
       </c>
       <c r="AH20">
         <v>12227.40666224131</v>
       </c>
       <c r="AI20">
-        <v>1888.67914407184</v>
+        <v>1941.423043260995</v>
       </c>
       <c r="AJ20">
         <v>1798.830273665891</v>
@@ -2769,16 +2769,16 @@
         <v>2171.553479009524</v>
       </c>
       <c r="AL20">
-        <v>1299.307346575124</v>
+        <v>2031.959134096323</v>
       </c>
       <c r="AM20">
-        <v>1994.860034139247</v>
+        <v>2032.445945850517</v>
       </c>
       <c r="AN20">
         <v>2298.487068544273</v>
       </c>
       <c r="AO20">
-        <v>15584.41487780872</v>
+        <v>25082.72490362039</v>
       </c>
       <c r="AP20">
         <v>19371.73913596667</v>
@@ -2796,7 +2796,7 @@
         <v>60905408.45588896</v>
       </c>
       <c r="AU20">
-        <v>8443.966918558684</v>
+        <v>8062.447006238249</v>
       </c>
       <c r="AV20">
         <v>9492.44250175305</v>
@@ -2810,7 +2810,7 @@
         <v>2013</v>
       </c>
       <c r="B21">
-        <v>1636.471877488357</v>
+        <v>1617.420727722424</v>
       </c>
       <c r="C21">
         <v>1350.890039342314</v>
@@ -2819,10 +2819,10 @@
         <v>1976.463067027287</v>
       </c>
       <c r="E21">
-        <v>488.7802611022015</v>
+        <v>470.699786440898</v>
       </c>
       <c r="F21">
-        <v>510.9739638042316</v>
+        <v>520.4771922167384</v>
       </c>
       <c r="G21">
         <v>582.2341919831002</v>
@@ -2837,7 +2837,7 @@
         <v>54663901.77479262</v>
       </c>
       <c r="K21">
-        <v>45101.63240565344</v>
+        <v>29714.04092257013</v>
       </c>
       <c r="L21">
         <v>34884.48430304191</v>
@@ -2858,7 +2858,7 @@
         <v>408.9512582523282</v>
       </c>
       <c r="R21">
-        <v>326.9160083788354</v>
+        <v>355.1789887717391</v>
       </c>
       <c r="S21">
         <v>408.9512582523282</v>
@@ -2885,16 +2885,16 @@
         <v>6473.443708264553</v>
       </c>
       <c r="AA21">
-        <v>5677.403173893913</v>
+        <v>5586.857578058069</v>
       </c>
       <c r="AB21">
         <v>8048.733649413106</v>
       </c>
       <c r="AC21">
-        <v>16503.57401038718</v>
+        <v>13497.25204519233</v>
       </c>
       <c r="AD21">
-        <v>9753.419777703761</v>
+        <v>9663.875209438873</v>
       </c>
       <c r="AE21">
         <v>16503.57401038717</v>
@@ -2903,13 +2903,13 @@
         <v>6814.715522503012</v>
       </c>
       <c r="AG21">
-        <v>7778.011148291564</v>
+        <v>7835.93580985485</v>
       </c>
       <c r="AH21">
         <v>9235.012073969016</v>
       </c>
       <c r="AI21">
-        <v>1799.646046132907</v>
+        <v>1855.199359403899</v>
       </c>
       <c r="AJ21">
         <v>1726.969888411038</v>
@@ -2918,16 +2918,16 @@
         <v>2097.587737716218</v>
       </c>
       <c r="AL21">
-        <v>1413.861678495803</v>
+        <v>2068.67969592886</v>
       </c>
       <c r="AM21">
-        <v>1977.100357148923</v>
+        <v>2018.138961991223</v>
       </c>
       <c r="AN21">
         <v>2349.404292810801</v>
       </c>
       <c r="AO21">
-        <v>16517.64214772591</v>
+        <v>24733.4436644437</v>
       </c>
       <c r="AP21">
         <v>15461.68371979268</v>
@@ -2945,7 +2945,7 @@
         <v>57555301.39466631</v>
       </c>
       <c r="AU21">
-        <v>8514.787491930612</v>
+        <v>8152.219166134018</v>
       </c>
       <c r="AV21">
         <v>9355.674868419246</v>
@@ -2959,7 +2959,7 @@
         <v>2014</v>
       </c>
       <c r="B22">
-        <v>1810.738231346972</v>
+        <v>1794.248846508181</v>
       </c>
       <c r="C22">
         <v>1514.094129300313</v>
@@ -2968,10 +2968,10 @@
         <v>2105.01157626242</v>
       </c>
       <c r="E22">
-        <v>512.4965271733016</v>
+        <v>496.8472929579793</v>
       </c>
       <c r="F22">
-        <v>525.3164518405241</v>
+        <v>534.528728290806</v>
       </c>
       <c r="G22">
         <v>593.3839197940157</v>
@@ -2986,7 +2986,7 @@
         <v>48232356.94048101</v>
       </c>
       <c r="K22">
-        <v>46023.26510530181</v>
+        <v>33197.35364955417</v>
       </c>
       <c r="L22">
         <v>37604.08749848326</v>
@@ -3007,7 +3007,7 @@
         <v>400.274299689188</v>
       </c>
       <c r="R22">
-        <v>329.7428636277842</v>
+        <v>354.5505254167203</v>
       </c>
       <c r="S22">
         <v>400.274299689188</v>
@@ -3034,16 +3034,16 @@
         <v>6048.900349056003</v>
       </c>
       <c r="AA22">
-        <v>5466.868635627524</v>
+        <v>5394.942314298394</v>
       </c>
       <c r="AB22">
         <v>7412.364622415836</v>
       </c>
       <c r="AC22">
-        <v>18227.51009786231</v>
+        <v>15625.44143311131</v>
       </c>
       <c r="AD22">
-        <v>11408.28486387633</v>
+        <v>11307.82911612793</v>
       </c>
       <c r="AE22">
         <v>18227.51009786231</v>
@@ -3052,13 +3052,13 @@
         <v>6533.796529667493</v>
       </c>
       <c r="AG22">
-        <v>6226.855117796978</v>
+        <v>6267.015161625644</v>
       </c>
       <c r="AH22">
         <v>7264.525484789056</v>
       </c>
       <c r="AI22">
-        <v>2075.626413075842</v>
+        <v>2123.709598230022</v>
       </c>
       <c r="AJ22">
         <v>1963.500418729963</v>
@@ -3067,16 +3067,16 @@
         <v>2333.50456071516</v>
       </c>
       <c r="AL22">
-        <v>1470.809234501364</v>
+        <v>2019.704597501432</v>
       </c>
       <c r="AM22">
-        <v>1934.210401930359</v>
+        <v>1970.865722316305</v>
       </c>
       <c r="AN22">
         <v>2262.680794139109</v>
       </c>
       <c r="AO22">
-        <v>24501.17106107449</v>
+        <v>31385.61201204394</v>
       </c>
       <c r="AP22">
         <v>17616.05500320437</v>
@@ -3094,7 +3094,7 @@
         <v>52708086.49507821</v>
       </c>
       <c r="AU22">
-        <v>8483.389882645875</v>
+        <v>8155.495859159219</v>
       </c>
       <c r="AV22">
         <v>9016.060104819921</v>
@@ -3108,7 +3108,7 @@
         <v>2015</v>
       </c>
       <c r="B23">
-        <v>1890.751080036742</v>
+        <v>1892.436716064637</v>
       </c>
       <c r="C23">
         <v>1731.424836901918</v>
@@ -3117,10 +3117,10 @@
         <v>1860.668832755343</v>
       </c>
       <c r="E23">
-        <v>429.7318735752188</v>
+        <v>431.3316247642541</v>
       </c>
       <c r="F23">
-        <v>479.1860445495253</v>
+        <v>487.007683884839</v>
       </c>
       <c r="G23">
         <v>421.4631173701227</v>
@@ -3135,7 +3135,7 @@
         <v>44162631.65726782</v>
       </c>
       <c r="K23">
-        <v>43376.32276312485</v>
+        <v>30740.7762920984</v>
       </c>
       <c r="L23">
         <v>41583.01392377404</v>
@@ -3156,7 +3156,7 @@
         <v>272.1849023649669</v>
       </c>
       <c r="R23">
-        <v>357.8065242015312</v>
+        <v>375.0736097988097</v>
       </c>
       <c r="S23">
         <v>272.1849023649669</v>
@@ -3183,16 +3183,16 @@
         <v>6086.491489148033</v>
       </c>
       <c r="AA23">
-        <v>6519.558127130157</v>
+        <v>6528.397325448147</v>
       </c>
       <c r="AB23">
         <v>5947.110637503622</v>
       </c>
       <c r="AC23">
-        <v>12800.88312044935</v>
+        <v>13066.8809567084</v>
       </c>
       <c r="AD23">
-        <v>13170.46168893768</v>
+        <v>13084.971537539</v>
       </c>
       <c r="AE23">
         <v>12800.88312044935</v>
@@ -3201,13 +3201,13 @@
         <v>7261.372177014885</v>
       </c>
       <c r="AG23">
-        <v>6839.071333424837</v>
+        <v>6942.106006450487</v>
       </c>
       <c r="AH23">
         <v>5973.593368942915</v>
       </c>
       <c r="AI23">
-        <v>2109.814643345132</v>
+        <v>2104.899314482095</v>
       </c>
       <c r="AJ23">
         <v>2150.04898868703</v>
@@ -3216,16 +3216,16 @@
         <v>2083.452914225616</v>
       </c>
       <c r="AL23">
-        <v>1503.315554617156</v>
+        <v>1953.224319842805</v>
       </c>
       <c r="AM23">
-        <v>2210.753036650275</v>
+        <v>2249.755201823999</v>
       </c>
       <c r="AN23">
         <v>1928.385950493217</v>
       </c>
       <c r="AO23">
-        <v>17037.67611637997</v>
+        <v>22537.41805358223</v>
       </c>
       <c r="AP23">
         <v>16673.90396463752</v>
@@ -3243,7 +3243,7 @@
         <v>40093015.61800598</v>
       </c>
       <c r="AU23">
-        <v>7948.234352859123</v>
+        <v>7673.370139839998</v>
       </c>
       <c r="AV23">
         <v>8103.668448098893</v>
@@ -3257,7 +3257,7 @@
         <v>2016</v>
       </c>
       <c r="B24">
-        <v>1731.207188995907</v>
+        <v>1735.382689833856</v>
       </c>
       <c r="C24">
         <v>1664.977048287041</v>
@@ -3266,10 +3266,10 @@
         <v>1656.690243076248</v>
       </c>
       <c r="E24">
-        <v>486.998983880729</v>
+        <v>490.9617387814228</v>
       </c>
       <c r="F24">
-        <v>544.054233303392</v>
+        <v>551.1656500883856</v>
       </c>
       <c r="G24">
         <v>466.5163898379971</v>
@@ -3284,7 +3284,7 @@
         <v>46878313.06144565</v>
       </c>
       <c r="K24">
-        <v>37663.07722573815</v>
+        <v>27054.4376929211</v>
       </c>
       <c r="L24">
         <v>36369.62204802842</v>
@@ -3305,7 +3305,7 @@
         <v>204.0830095321525</v>
       </c>
       <c r="R24">
-        <v>293.2316800279439</v>
+        <v>302.3913284100003</v>
       </c>
       <c r="S24">
         <v>204.0830095321524</v>
@@ -3332,16 +3332,16 @@
         <v>5530.300528917509</v>
       </c>
       <c r="AA24">
-        <v>6218.398125248377</v>
+        <v>6245.809023777171</v>
       </c>
       <c r="AB24">
         <v>5185.039242848487</v>
       </c>
       <c r="AC24">
-        <v>10212.12979563692</v>
+        <v>10871.03490315252</v>
       </c>
       <c r="AD24">
-        <v>11969.1549258654</v>
+        <v>11921.76814890937</v>
       </c>
       <c r="AE24">
         <v>10212.12979563692</v>
@@ -3350,13 +3350,13 @@
         <v>7196.351812172795</v>
       </c>
       <c r="AG24">
-        <v>7632.145974791603</v>
+        <v>7741.751199784594</v>
       </c>
       <c r="AH24">
         <v>6417.150145733914</v>
       </c>
       <c r="AI24">
-        <v>2289.452254163789</v>
+        <v>2277.276458531302</v>
       </c>
       <c r="AJ24">
         <v>2390.315271673495</v>
@@ -3365,16 +3365,16 @@
         <v>2224.151429901157</v>
       </c>
       <c r="AL24">
-        <v>1684.863498583772</v>
+        <v>2048.616756577159</v>
       </c>
       <c r="AM24">
-        <v>2380.716120321723</v>
+        <v>2413.098153823832</v>
       </c>
       <c r="AN24">
         <v>1987.089457494681</v>
       </c>
       <c r="AO24">
-        <v>19479.37964173626</v>
+        <v>23572.99025436727</v>
       </c>
       <c r="AP24">
         <v>17582.10751449552</v>
@@ -3392,7 +3392,7 @@
         <v>37059232.28322871</v>
       </c>
       <c r="AU24">
-        <v>9635.819843537052</v>
+        <v>9421.361001587842</v>
       </c>
       <c r="AV24">
         <v>9989.7421710327</v>
@@ -3406,7 +3406,7 @@
         <v>2017</v>
       </c>
       <c r="B25">
-        <v>1807.492399839118</v>
+        <v>1808.968210899963</v>
       </c>
       <c r="C25">
         <v>1729.373791710855</v>
@@ -3415,10 +3415,10 @@
         <v>1781.154737058852</v>
       </c>
       <c r="E25">
-        <v>551.7932118993751</v>
+        <v>553.1938289129582</v>
       </c>
       <c r="F25">
-        <v>585.0084112111128</v>
+        <v>589.0487395373045</v>
       </c>
       <c r="G25">
         <v>544.5537357224504</v>
@@ -3433,7 +3433,7 @@
         <v>46299989.52174863</v>
       </c>
       <c r="K25">
-        <v>65003.0501734932</v>
+        <v>57859.90068449223</v>
       </c>
       <c r="L25">
         <v>66528.56677753583</v>
@@ -3454,7 +3454,7 @@
         <v>247.6347901208268</v>
       </c>
       <c r="R25">
-        <v>303.373656653294</v>
+        <v>308.6938287994942</v>
       </c>
       <c r="S25">
         <v>247.6347901208268</v>
@@ -3481,16 +3481,16 @@
         <v>6557.33391793848</v>
       </c>
       <c r="AA25">
-        <v>6842.683414847526</v>
+        <v>6843.698562508468</v>
       </c>
       <c r="AB25">
         <v>6435.302946173061</v>
       </c>
       <c r="AC25">
-        <v>10862.14029792377</v>
+        <v>11095.0271978331</v>
       </c>
       <c r="AD25">
-        <v>11387.67494615717</v>
+        <v>11369.67626369812</v>
       </c>
       <c r="AE25">
         <v>10862.14029792377</v>
@@ -3499,13 +3499,13 @@
         <v>7040.156163514588</v>
       </c>
       <c r="AG25">
-        <v>6812.161696460812</v>
+        <v>6851.074779262976</v>
       </c>
       <c r="AH25">
         <v>6277.070116919883</v>
       </c>
       <c r="AI25">
-        <v>3037.741767871492</v>
+        <v>3033.438290380672</v>
       </c>
       <c r="AJ25">
         <v>3070.872317977752</v>
@@ -3514,16 +3514,16 @@
         <v>3014.661499786473</v>
       </c>
       <c r="AL25">
-        <v>2183.089297816427</v>
+        <v>2434.783440315775</v>
       </c>
       <c r="AM25">
-        <v>2600.409237384875</v>
+        <v>2619.409216212214</v>
       </c>
       <c r="AN25">
         <v>2413.036906892867</v>
       </c>
       <c r="AO25">
-        <v>21727.32769955309</v>
+        <v>24344.34763974227</v>
       </c>
       <c r="AP25">
         <v>17167.64537775462</v>
@@ -3541,7 +3541,7 @@
         <v>34895802.03203526</v>
       </c>
       <c r="AU25">
-        <v>13322.56297886541</v>
+        <v>13192.75687892874</v>
       </c>
       <c r="AV25">
         <v>13849.1154676151</v>
@@ -3555,7 +3555,7 @@
         <v>2018</v>
       </c>
       <c r="B26">
-        <v>1640.542679842306</v>
+        <v>1637.098742264766</v>
       </c>
       <c r="C26">
         <v>1571.926530067905</v>
@@ -3564,10 +3564,10 @@
         <v>1702.003979977572</v>
       </c>
       <c r="E26">
-        <v>690.3026935313682</v>
+        <v>687.0342280124428</v>
       </c>
       <c r="F26">
-        <v>673.5967827758836</v>
+        <v>671.3341543071292</v>
       </c>
       <c r="G26">
         <v>707.1966609970564</v>
@@ -3582,7 +3582,7 @@
         <v>45609011.21192584</v>
       </c>
       <c r="K26">
-        <v>77541.81461453029</v>
+        <v>74457.16751640862</v>
       </c>
       <c r="L26">
         <v>72213.34370363902</v>
@@ -3630,16 +3630,16 @@
         <v>6363.705681109887</v>
       </c>
       <c r="AA26">
-        <v>6122.308026113174</v>
+        <v>6081.437074691799</v>
       </c>
       <c r="AB26">
         <v>6648.475907080436</v>
       </c>
       <c r="AC26">
-        <v>13347.65801523947</v>
+        <v>12804.19553064786</v>
       </c>
       <c r="AD26">
-        <v>11854.90857836579</v>
+        <v>11874.94268097311</v>
       </c>
       <c r="AE26">
         <v>13347.65801523947</v>
@@ -3648,13 +3648,13 @@
         <v>6288.413393454815</v>
       </c>
       <c r="AG26">
-        <v>5435.445799774576</v>
+        <v>5387.350078506957</v>
       </c>
       <c r="AH26">
         <v>5641.744869873716</v>
       </c>
       <c r="AI26">
-        <v>2922.877189077092</v>
+        <v>2932.919740076979</v>
       </c>
       <c r="AJ26">
         <v>2831.585450422975</v>
@@ -3663,16 +3663,16 @@
         <v>2976.737066311099</v>
       </c>
       <c r="AL26">
-        <v>2101.969640907192</v>
+        <v>2231.336156219504</v>
       </c>
       <c r="AM26">
-        <v>2171.885937952698</v>
+        <v>2161.738719800539</v>
       </c>
       <c r="AN26">
         <v>2282.083643905025</v>
       </c>
       <c r="AO26">
-        <v>25011.57281847713</v>
+        <v>26005.27251662231</v>
       </c>
       <c r="AP26">
         <v>20696.00347356564</v>
@@ -3752,7 +3752,7 @@
         <v>245.1984786166497</v>
       </c>
       <c r="R27">
-        <v>265.9699008608838</v>
+        <v>265.4356130274937</v>
       </c>
       <c r="S27">
         <v>245.1984786166497</v>
@@ -3839,7 +3839,7 @@
         <v>30458944.08757766</v>
       </c>
       <c r="AU27">
-        <v>12342.95920336303</v>
+        <v>12476.20299523045</v>
       </c>
       <c r="AV27">
         <v>12591.45443133988</v>
@@ -3853,7 +3853,7 @@
         <v>2020</v>
       </c>
       <c r="B28">
-        <v>1491.64400608647</v>
+        <v>1498.533479287076</v>
       </c>
       <c r="C28">
         <v>1561.732549931314</v>
@@ -3862,10 +3862,10 @@
         <v>1368.692886728863</v>
       </c>
       <c r="E28">
-        <v>516.2767266146456</v>
+        <v>522.8151742760065</v>
       </c>
       <c r="F28">
-        <v>556.4701451469678</v>
+        <v>587.0638075925759</v>
       </c>
       <c r="G28">
         <v>482.4809525954506</v>
@@ -3880,7 +3880,7 @@
         <v>61699902.44977284</v>
       </c>
       <c r="K28">
-        <v>28922.41047660822</v>
+        <v>31060.20360621458</v>
       </c>
       <c r="L28">
         <v>38741.14888870906</v>
@@ -3901,7 +3901,7 @@
         <v>223.6952873745588</v>
       </c>
       <c r="R28">
-        <v>333.9761316318166</v>
+        <v>356.9415316270622</v>
       </c>
       <c r="S28">
         <v>223.6952873745588</v>
@@ -3928,16 +3928,16 @@
         <v>6666.314552317488</v>
       </c>
       <c r="AA28">
-        <v>7872.982615578731</v>
+        <v>8135.491250654642</v>
       </c>
       <c r="AB28">
         <v>6096.641962155219</v>
       </c>
       <c r="AC28">
-        <v>13613.63338600951</v>
+        <v>14700.81053101534</v>
       </c>
       <c r="AD28">
-        <v>19221.11405621048</v>
+        <v>18850.14414927956</v>
       </c>
       <c r="AE28">
         <v>13613.63338600951</v>
@@ -3946,13 +3946,13 @@
         <v>4522.670815429041</v>
       </c>
       <c r="AG28">
-        <v>8303.894369809768</v>
+        <v>8897.249313821005</v>
       </c>
       <c r="AH28">
         <v>7142.873546619193</v>
       </c>
       <c r="AI28">
-        <v>2345.078383792829</v>
+        <v>2324.988621878836</v>
       </c>
       <c r="AJ28">
         <v>2569.992055420401</v>
@@ -3961,10 +3961,10 @@
         <v>2237.333637427063</v>
       </c>
       <c r="AL28">
-        <v>2015.697899325253</v>
+        <v>1903.22953429479</v>
       </c>
       <c r="AM28">
-        <v>2163.329467785759</v>
+        <v>2288.013396663127</v>
       </c>
       <c r="AN28">
         <v>1801.711011227605</v>
@@ -3979,7 +3979,7 @@
         <v>30772733.16950296</v>
       </c>
       <c r="AU28">
-        <v>8810.900960838962</v>
+        <v>8835.40724363333</v>
       </c>
       <c r="AV28">
         <v>9231.217855697441</v>
@@ -3993,7 +3993,7 @@
         <v>2021</v>
       </c>
       <c r="B29">
-        <v>2058.253401342103</v>
+        <v>2055.593189564109</v>
       </c>
       <c r="C29">
         <v>1973.58773867304</v>
@@ -4002,10 +4002,10 @@
         <v>2105.728151052122</v>
       </c>
       <c r="E29">
-        <v>1227.298467759791</v>
+        <v>1224.773796428314</v>
       </c>
       <c r="F29">
-        <v>1068.375406823633</v>
+        <v>1161.899951949983</v>
       </c>
       <c r="G29">
         <v>1240.347929376737</v>
@@ -4020,7 +4020,7 @@
         <v>59939197.04102779</v>
       </c>
       <c r="K29">
-        <v>37635.19547794383</v>
+        <v>48014.77565970912</v>
       </c>
       <c r="L29">
         <v>46824.59534982225</v>
@@ -4041,7 +4041,7 @@
         <v>261.0896219225522</v>
       </c>
       <c r="R29">
-        <v>234.0893375028165</v>
+        <v>265.4094135714249</v>
       </c>
       <c r="S29">
         <v>261.0896219225523</v>
@@ -4068,16 +4068,16 @@
         <v>8560.071131995042</v>
       </c>
       <c r="AA29">
-        <v>7788.339616864933</v>
+        <v>8054.13017434067</v>
       </c>
       <c r="AB29">
         <v>8780.037113402257</v>
       </c>
       <c r="AC29">
-        <v>17404.70848230327</v>
+        <v>16984.92000766982</v>
       </c>
       <c r="AD29">
-        <v>16189.18653403793</v>
+        <v>15693.00233399153</v>
       </c>
       <c r="AE29">
         <v>17404.70848230326</v>
@@ -4086,13 +4086,13 @@
         <v>5636.071981193452</v>
       </c>
       <c r="AG29">
-        <v>7287.958349630748</v>
+        <v>7978.767789733166</v>
       </c>
       <c r="AH29">
         <v>8381.643357854238</v>
       </c>
       <c r="AI29">
-        <v>2789.079161202129</v>
+        <v>2796.83636116569</v>
       </c>
       <c r="AJ29">
         <v>2721.039021154074</v>
@@ -4101,10 +4101,10 @@
         <v>2830.682319375961</v>
       </c>
       <c r="AL29">
-        <v>2397.687972966943</v>
+        <v>2034.568676921522</v>
       </c>
       <c r="AM29">
-        <v>1826.25039870049</v>
+        <v>1990.296437983113</v>
       </c>
       <c r="AN29">
         <v>2073.76772202763</v>
@@ -4119,7 +4119,7 @@
         <v>36365791.70989345</v>
       </c>
       <c r="AU29">
-        <v>6686.756484321929</v>
+        <v>6737.57386488478</v>
       </c>
       <c r="AV29">
         <v>7345.27454586555</v>
@@ -4133,7 +4133,7 @@
         <v>2022</v>
       </c>
       <c r="B30">
-        <v>2092.337781182865</v>
+        <v>2083.980841908126</v>
       </c>
       <c r="C30">
         <v>2011.879462193963</v>
@@ -4142,10 +4142,10 @@
         <v>2241.477636773307</v>
       </c>
       <c r="E30">
-        <v>904.3823622449366</v>
+        <v>896.4512173712999</v>
       </c>
       <c r="F30">
-        <v>727.6571970886683</v>
+        <v>792.471653390486</v>
       </c>
       <c r="G30">
         <v>945.376676758903</v>
@@ -4160,7 +4160,7 @@
         <v>58649686.5554349</v>
       </c>
       <c r="K30">
-        <v>46078.4713285855</v>
+        <v>64227.82378140284</v>
       </c>
       <c r="L30">
         <v>51875.8715525052</v>
@@ -4181,7 +4181,7 @@
         <v>292.2474735681294</v>
       </c>
       <c r="R30">
-        <v>208.7765463414587</v>
+        <v>236.9698841376587</v>
       </c>
       <c r="S30">
         <v>292.2474735681293</v>
@@ -4199,16 +4199,16 @@
         <v>8240.94245177071</v>
       </c>
       <c r="AA30">
-        <v>6787.027302693605</v>
+        <v>7016.646539520036</v>
       </c>
       <c r="AB30">
         <v>8931.955988487865</v>
       </c>
       <c r="AC30">
-        <v>20949.25110369324</v>
+        <v>19630.50391981601</v>
       </c>
       <c r="AD30">
-        <v>16658.70937687119</v>
+        <v>16116.73004385622</v>
       </c>
       <c r="AE30">
         <v>20949.25110369322</v>
@@ -4217,13 +4217,13 @@
         <v>4675.246770199862</v>
       </c>
       <c r="AG30">
-        <v>5575.725460700914</v>
+        <v>6107.68762725527</v>
       </c>
       <c r="AH30">
         <v>7438.234481401256</v>
       </c>
       <c r="AI30">
-        <v>3137.524183333582</v>
+        <v>3161.893088686812</v>
       </c>
       <c r="AJ30">
         <v>2923.169248077892</v>
@@ -4232,10 +4232,10 @@
         <v>3268.218690204085</v>
       </c>
       <c r="AL30">
-        <v>2588.433721683545</v>
+        <v>1972.269200829096</v>
       </c>
       <c r="AM30">
-        <v>1592.296870371337</v>
+        <v>1740.03638525802</v>
       </c>
       <c r="AN30">
         <v>2095.411291353366</v>
@@ -4250,7 +4250,7 @@
         <v>32618028.34655114</v>
       </c>
       <c r="AU30">
-        <v>7746.718266803749</v>
+        <v>8031.602948760663</v>
       </c>
       <c r="AV30">
         <v>8939.359088681877</v>
@@ -4285,7 +4285,7 @@
         <v>4860.29847269045</v>
       </c>
       <c r="AA31">
-        <v>7064.091998400792</v>
+        <v>6506.748099862238</v>
       </c>
       <c r="AB31">
         <v>5193.988050836508</v>
@@ -4294,13 +4294,13 @@
         <v>8384.305017357052</v>
       </c>
       <c r="AG31">
-        <v>7001.152731593173</v>
+        <v>6328.541384977864</v>
       </c>
       <c r="AH31">
         <v>2947.154282223573</v>
       </c>
       <c r="AI31">
-        <v>3026.332386967969</v>
+        <v>3016.202188229237</v>
       </c>
       <c r="AJ31">
         <v>3194.229749962722</v>
@@ -4344,7 +4344,7 @@
         <v>4906.234659017462</v>
       </c>
       <c r="AA32">
-        <v>7724.581157700229</v>
+        <v>7271.786157280719</v>
       </c>
       <c r="AB32">
         <v>4386.684026887008</v>
@@ -4353,13 +4353,13 @@
         <v>9071.430739829448</v>
       </c>
       <c r="AG32">
-        <v>7496.01086012364</v>
+        <v>7031.035531207267</v>
       </c>
       <c r="AH32">
         <v>2682.641605149412</v>
       </c>
       <c r="AI32">
-        <v>2195.547740940599</v>
+        <v>2177.225552578345</v>
       </c>
       <c r="AJ32">
         <v>2359.022913619575</v>
@@ -4403,7 +4403,7 @@
         <v>4765.215306358713</v>
       </c>
       <c r="AA33">
-        <v>7544.138664498618</v>
+        <v>7179.232061667323</v>
       </c>
       <c r="AB33">
         <v>4156.050645727009</v>
@@ -4412,13 +4412,13 @@
         <v>9442.626869862332</v>
       </c>
       <c r="AG33">
-        <v>7056.462280119614</v>
+        <v>6757.172093234034</v>
       </c>
       <c r="AH33">
         <v>2537.127985060235</v>
       </c>
       <c r="AI33">
-        <v>2375.928949428936</v>
+        <v>2354.446481762685</v>
       </c>
       <c r="AJ33">
         <v>2593.349282747286</v>
@@ -4462,16 +4462,16 @@
         <v>4148.388899673397</v>
       </c>
       <c r="AA34">
-        <v>6654.288979427539</v>
+        <v>6419.283328827324</v>
       </c>
       <c r="AB34">
         <v>3390.326886867826</v>
       </c>
       <c r="AC34">
-        <v>8197.821276687624</v>
+        <v>9813.622873508441</v>
       </c>
       <c r="AD34">
-        <v>10767.93515800311</v>
+        <v>10675.35044164502</v>
       </c>
       <c r="AE34">
         <v>8272.262813750325</v>
@@ -4480,13 +4480,13 @@
         <v>9611.414691189353</v>
       </c>
       <c r="AG34">
-        <v>7631.326745827204</v>
+        <v>7512.412272989055</v>
       </c>
       <c r="AH34">
         <v>2688.264859218457</v>
       </c>
       <c r="AI34">
-        <v>1848.024696907721</v>
+        <v>1821.291296676951</v>
       </c>
       <c r="AJ34">
         <v>2063.881420743769</v>
@@ -4495,10 +4495,10 @@
         <v>1704.649009346567</v>
       </c>
       <c r="AL34">
-        <v>-1800.234840033684</v>
+        <v>858.6137564410353</v>
       </c>
       <c r="AM34">
-        <v>2052.224963337188</v>
+        <v>2075.34541543707</v>
       </c>
       <c r="AN34">
         <v>705.3409553268115</v>
@@ -4527,7 +4527,7 @@
         <v>17857.01489100969</v>
       </c>
       <c r="AI35">
-        <v>3450.377260424116</v>
+        <v>3432.372053718699</v>
       </c>
       <c r="AJ35">
         <v>3720.198356700178</v>
